--- a/Summary Model Score.xlsx
+++ b/Summary Model Score.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/m20200566_novaims_unl_pt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\DSAA_Machine_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{048FE254-F525-4A04-9D8D-DE3D69BF197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3660121E-510D-4D1A-BE6D-AF1BF40D9E1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693C701-D78D-48A8-9706-13AF77022A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C5D96C2-CA3B-46C4-B383-77EE94F8B16C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -60,28 +60,40 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Accuracy_Train</t>
-  </si>
-  <si>
-    <t>Precision_Train</t>
-  </si>
-  <si>
-    <t>Accuracy_Test</t>
-  </si>
-  <si>
-    <t>Precision_Test</t>
-  </si>
-  <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Remove Base_Area feature</t>
+  </si>
+  <si>
+    <t>Add on 29/11</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,12 +117,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,10 +156,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,104 +490,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2F23E-5E37-4C28-9E04-1BB5B882D074}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.84802295918367299</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.83958333333333302</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.71089271089271</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.84802295918367299</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.83958333333333302</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.71089271089271</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="F11" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Summary Model Score.xlsx
+++ b/Summary Model Score.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\DSAA_Machine_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693C701-D78D-48A8-9706-13AF77022A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82B60D-7A0B-443C-A19F-22CD7DF0ED7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C5D96C2-CA3B-46C4-B383-77EE94F8B16C}"/>
+    <workbookView xWindow="5565" yWindow="2370" windowWidth="20925" windowHeight="13230" xr2:uid="{5C5D96C2-CA3B-46C4-B383-77EE94F8B16C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -88,6 +89,24 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>Phuc</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Try robust scaler</t>
+  </si>
+  <si>
+    <t>Try ensemble classifer</t>
   </si>
 </sst>
 </file>
@@ -156,14 +175,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -490,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2F23E-5E37-4C28-9E04-1BB5B882D074}">
-  <dimension ref="B1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,33 +527,36 @@
     <col min="13" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="7" t="s">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,7 +578,7 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -571,11 +590,14 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -591,50 +613,45 @@
       <c r="G4" s="2">
         <v>0.72727272727272696</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.56000000000000005</v>
-      </c>
       <c r="J4" s="2">
         <v>0.83958333333333302</v>
       </c>
       <c r="K4" s="2">
         <v>0.71089271089271</v>
       </c>
-      <c r="L4" s="2">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -664,6 +681,30 @@
       </c>
       <c r="M11" s="2">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -674,6 +715,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9D2B6-F4F3-4580-8C18-0F473AA4B1F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
